--- a/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>39460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28989</v>
+        <v>29418</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51464</v>
+        <v>50800</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.144537796073839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1061831700638038</v>
+        <v>0.107752559661544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1885048274061049</v>
+        <v>0.1860752854051966</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>56095</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43778</v>
+        <v>42485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71875</v>
+        <v>69655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2150574630864851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1678346155453464</v>
+        <v>0.1628803199431361</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2755558676204953</v>
+        <v>0.2670433436144181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -786,19 +786,19 @@
         <v>95555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78172</v>
+        <v>77909</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114015</v>
+        <v>114437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1789936978659249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1464308091387838</v>
+        <v>0.1459377031025121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2135718185941309</v>
+        <v>0.2143617992319927</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>233550</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>221546</v>
+        <v>222210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244021</v>
+        <v>243592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.855462203926161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8114951725938954</v>
+        <v>0.8139247145948036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8938168299361966</v>
+        <v>0.8922474403384562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -836,19 +836,19 @@
         <v>204743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188963</v>
+        <v>191183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217060</v>
+        <v>218353</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7849425369135149</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7244441323795048</v>
+        <v>0.7329566563855815</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8321653844546536</v>
+        <v>0.8371196800568639</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>423</v>
@@ -857,19 +857,19 @@
         <v>438293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>419833</v>
+        <v>419411</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455676</v>
+        <v>455939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8210063021340751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7864281814058691</v>
+        <v>0.7856382007680073</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8535691908612163</v>
+        <v>0.8540622968974879</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>75472</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60544</v>
+        <v>60123</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95071</v>
+        <v>92929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1530641153493477</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1227890406480907</v>
+        <v>0.1219357162401674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1928132494604097</v>
+        <v>0.1884677796812231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -982,19 +982,19 @@
         <v>128019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106293</v>
+        <v>108373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146523</v>
+        <v>147333</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2540325157560144</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2109204307759338</v>
+        <v>0.2150468115038339</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2907497837591064</v>
+        <v>0.2923578079697666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>196</v>
@@ -1003,19 +1003,19 @@
         <v>203492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178907</v>
+        <v>180446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230442</v>
+        <v>230156</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2040989167352747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1794406124529262</v>
+        <v>0.1809841605641221</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2311294892007124</v>
+        <v>0.2308432182663694</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>417603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>398004</v>
+        <v>400146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432531</v>
+        <v>432952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8469358846506523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8071867505395904</v>
+        <v>0.811532220318777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8772109593519093</v>
+        <v>0.8780642837598329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -1053,19 +1053,19 @@
         <v>375930</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357426</v>
+        <v>356616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397656</v>
+        <v>395576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7459674842439856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7092502162408935</v>
+        <v>0.7076421920302332</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7890795692240656</v>
+        <v>0.7849531884961659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>768</v>
@@ -1074,19 +1074,19 @@
         <v>793532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>766582</v>
+        <v>766868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>818117</v>
+        <v>816578</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7959010832647253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7688705107992876</v>
+        <v>0.7691567817336304</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8205593875470738</v>
+        <v>0.8190158394358779</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>68469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55059</v>
+        <v>54760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85623</v>
+        <v>84461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2147405984200385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1726823041251805</v>
+        <v>0.1717428190737139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2685417093575955</v>
+        <v>0.2648945753282025</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1199,19 +1199,19 @@
         <v>85961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71490</v>
+        <v>70640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101913</v>
+        <v>102310</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2562836133818231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2131415144682024</v>
+        <v>0.2106079129717041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3038440230705803</v>
+        <v>0.3050281463458367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1220,19 +1220,19 @@
         <v>154430</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132429</v>
+        <v>133441</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179886</v>
+        <v>175905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2360380493610484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2024111284299462</v>
+        <v>0.2039583659650071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2749471327874986</v>
+        <v>0.268862362983066</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>250377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>233223</v>
+        <v>234385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263787</v>
+        <v>264086</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7852594015799615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7314582906424045</v>
+        <v>0.7351054246717977</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8273176958748194</v>
+        <v>0.8282571809262862</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>251</v>
@@ -1270,19 +1270,19 @@
         <v>249451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233499</v>
+        <v>233102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263922</v>
+        <v>264772</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7437163866181769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6961559769294193</v>
+        <v>0.6949718536541633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7868584855317974</v>
+        <v>0.7893920870282958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>496</v>
@@ -1291,19 +1291,19 @@
         <v>499828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>474372</v>
+        <v>478353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>521829</v>
+        <v>520817</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7639619506389516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7250528672125013</v>
+        <v>0.731137637016934</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7975888715700535</v>
+        <v>0.796041634034993</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>74606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59720</v>
+        <v>59322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90551</v>
+        <v>91625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2080054826808488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1665037745597089</v>
+        <v>0.1653945654807335</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2524627437781677</v>
+        <v>0.2554582883511952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -1416,19 +1416,19 @@
         <v>103759</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87774</v>
+        <v>87433</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121101</v>
+        <v>122217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2793305931623062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2362974424917557</v>
+        <v>0.2353790589034218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3260167731515285</v>
+        <v>0.3290210152301226</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -1437,19 +1437,19 @@
         <v>178365</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156182</v>
+        <v>153962</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202202</v>
+        <v>200378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2442925052807117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2139103249309039</v>
+        <v>0.2108703681664592</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2769406748809065</v>
+        <v>0.2744426107181905</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>284065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>268120</v>
+        <v>267046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298951</v>
+        <v>299349</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7919945173191512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7475372562218324</v>
+        <v>0.7445417116488047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8334962254402916</v>
+        <v>0.8346054345192663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -1487,19 +1487,19 @@
         <v>267697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>250355</v>
+        <v>249239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>283682</v>
+        <v>284023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7206694068376938</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6739832268484713</v>
+        <v>0.6709789847698772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7637025575082443</v>
+        <v>0.7646209410965782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>560</v>
@@ -1508,19 +1508,19 @@
         <v>551762</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>527925</v>
+        <v>529749</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573945</v>
+        <v>576165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7557074947192883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7230593251190933</v>
+        <v>0.7255573892818095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7860896750690961</v>
+        <v>0.7891296318335407</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>34772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24938</v>
+        <v>24897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45715</v>
+        <v>46790</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1710318041295313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1226607649011767</v>
+        <v>0.1224593450845904</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2248544621826214</v>
+        <v>0.2301427477395159</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1633,19 +1633,19 @@
         <v>42041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31313</v>
+        <v>31495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54810</v>
+        <v>54960</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2024423325966683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1507857002472826</v>
+        <v>0.1516610185499777</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2639300805702368</v>
+        <v>0.2646512722338533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -1654,19 +1654,19 @@
         <v>76813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60502</v>
+        <v>62311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93006</v>
+        <v>92264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1869036820388051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1472159968307916</v>
+        <v>0.1516183078643249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2263048326423833</v>
+        <v>0.2244987085703951</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>168536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157593</v>
+        <v>156518</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178370</v>
+        <v>178411</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8289681958704688</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7751455378173788</v>
+        <v>0.7698572522604844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8773392350988233</v>
+        <v>0.8775406549154096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -1704,19 +1704,19 @@
         <v>165627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>152858</v>
+        <v>152708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176355</v>
+        <v>176173</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7975576674033317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7360699194297636</v>
+        <v>0.7353487277661467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8492142997527176</v>
+        <v>0.8483389814500223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>328</v>
@@ -1725,19 +1725,19 @@
         <v>334163</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>317970</v>
+        <v>318712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>350474</v>
+        <v>348665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8130963179611949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7736951673576168</v>
+        <v>0.775501291429605</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8527840031692084</v>
+        <v>0.8483816921356749</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>58539</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45927</v>
+        <v>45521</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74288</v>
+        <v>72491</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2161620179243341</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1695891286080424</v>
+        <v>0.1680927719650319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2743149891035174</v>
+        <v>0.2676819193409214</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -1850,19 +1850,19 @@
         <v>87395</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71250</v>
+        <v>73621</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102434</v>
+        <v>103114</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3152730058203255</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2570330483240025</v>
+        <v>0.2655838035781229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3695270477216634</v>
+        <v>0.3719802861355952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -1871,19 +1871,19 @@
         <v>145934</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125170</v>
+        <v>127008</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>166663</v>
+        <v>167861</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2662955644133594</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2284072175680272</v>
+        <v>0.2317599239158138</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3041223059920506</v>
+        <v>0.3063076048423745</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>212272</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196523</v>
+        <v>198320</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224884</v>
+        <v>225290</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7838379820756659</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7256850108964826</v>
+        <v>0.7323180806590791</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8304108713919577</v>
+        <v>0.8319072280349681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -1921,19 +1921,19 @@
         <v>189808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174769</v>
+        <v>174089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205953</v>
+        <v>203582</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6847269941796745</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6304729522783363</v>
+        <v>0.6280197138644049</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7429669516759974</v>
+        <v>0.7344161964218773</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>394</v>
@@ -1942,19 +1942,19 @@
         <v>402080</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>381351</v>
+        <v>380153</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>422844</v>
+        <v>421006</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7337044355866406</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.695877694007949</v>
+        <v>0.6936923951576254</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7715927824319727</v>
+        <v>0.7682400760841861</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>110211</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92009</v>
+        <v>91800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131477</v>
+        <v>132221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1794552655515136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.149817757743141</v>
+        <v>0.1494772809216826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.214082787312062</v>
+        <v>0.2152935149954025</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -2067,19 +2067,19 @@
         <v>168706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>145999</v>
+        <v>147129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189511</v>
+        <v>193034</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2643379592627019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2287599720479259</v>
+        <v>0.2305312509859276</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2969378995330547</v>
+        <v>0.302457084813449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>271</v>
@@ -2088,19 +2088,19 @@
         <v>278917</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>248067</v>
+        <v>250068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>308007</v>
+        <v>308598</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2227125544920038</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1980797507694363</v>
+        <v>0.1996773602882395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2459413150135275</v>
+        <v>0.2464128231830466</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>503931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>482665</v>
+        <v>481921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>522133</v>
+        <v>522342</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8205447344484864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.785917212687938</v>
+        <v>0.7847064850045972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.850182242256859</v>
+        <v>0.850522719078317</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>457</v>
@@ -2138,19 +2138,19 @@
         <v>469513</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>448708</v>
+        <v>445185</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>492220</v>
+        <v>491090</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.735662040737298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7030621004669454</v>
+        <v>0.6975429151865511</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7712400279520741</v>
+        <v>0.7694687490140724</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>947</v>
@@ -2159,19 +2159,19 @@
         <v>973444</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>944354</v>
+        <v>943763</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1004294</v>
+        <v>1002293</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7772874455079962</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7540586849864721</v>
+        <v>0.7535871768169533</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8019202492305637</v>
+        <v>0.8003226397117604</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>98817</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80457</v>
+        <v>82294</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117403</v>
+        <v>118221</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1328551322397076</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1081704270888159</v>
+        <v>0.1106408840980062</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1578436259591044</v>
+        <v>0.1589429493592469</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>143</v>
@@ -2284,19 +2284,19 @@
         <v>152033</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129249</v>
+        <v>132574</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175530</v>
+        <v>175262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1940410641939099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1649617609309766</v>
+        <v>0.1692049907110872</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2240296701074544</v>
+        <v>0.2236873659363376</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>240</v>
@@ -2305,19 +2305,19 @@
         <v>250850</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223233</v>
+        <v>221455</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>281951</v>
+        <v>281812</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1642436355373574</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.146161555025074</v>
+        <v>0.1449968302087244</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1846067736478283</v>
+        <v>0.1845158745662173</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>644978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>626392</v>
+        <v>625574</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>663338</v>
+        <v>661501</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8671448677602924</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8421563740408955</v>
+        <v>0.8410570506407538</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8918295729111841</v>
+        <v>0.889359115901994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>602</v>
@@ -2355,19 +2355,19 @@
         <v>631478</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>607981</v>
+        <v>608249</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>654262</v>
+        <v>650937</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8059589358060901</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7759703298925452</v>
+        <v>0.7763126340636628</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8350382390690231</v>
+        <v>0.8307950092889128</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1241</v>
@@ -2376,19 +2376,19 @@
         <v>1276456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1245355</v>
+        <v>1245494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1304073</v>
+        <v>1305851</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8357563644626426</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8153932263521716</v>
+        <v>0.8154841254337832</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.853838444974926</v>
+        <v>0.8550031697912757</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>560346</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.171063724049147</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>803</v>
@@ -2501,19 +2501,19 @@
         <v>824009</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2439153450952016</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1352</v>
@@ -2522,19 +2522,19 @@
         <v>1384355</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2080511926119917</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2715313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2493</v>
@@ -2572,19 +2572,19 @@
         <v>2554248</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5157</v>
@@ -2593,19 +2593,19 @@
         <v>5269560</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>101010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86632</v>
+        <v>82869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120554</v>
+        <v>118850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3435593412164184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2946562535026501</v>
+        <v>0.2818583099714331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4100331678355563</v>
+        <v>0.4042353820450178</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -2962,19 +2962,19 @@
         <v>110764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94425</v>
+        <v>93290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130194</v>
+        <v>127742</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3871956990740967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3300796292433781</v>
+        <v>0.3261120221794568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4551186790913108</v>
+        <v>0.446545840172167</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -2983,19 +2983,19 @@
         <v>211774</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>189112</v>
+        <v>189012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>237170</v>
+        <v>235299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.365078719069111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3260119331356655</v>
+        <v>0.3258393592712744</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4088594732407449</v>
+        <v>0.4056339154102573</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>193001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173457</v>
+        <v>175161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>207379</v>
+        <v>211142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6564406587835816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5899668321644437</v>
+        <v>0.595764617954982</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.70534374649735</v>
+        <v>0.7181416900285669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -3033,19 +3033,19 @@
         <v>175303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>155873</v>
+        <v>158325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>191642</v>
+        <v>192777</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6128043009259033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5448813209086895</v>
+        <v>0.553454159827833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.669920370756622</v>
+        <v>0.6738879778205432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -3054,19 +3054,19 @@
         <v>368304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>342908</v>
+        <v>344779</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390966</v>
+        <v>391066</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6349212809308891</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5911405267592551</v>
+        <v>0.5943660845897428</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6739880668643343</v>
+        <v>0.6741606407287256</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>131306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109009</v>
+        <v>112280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152521</v>
+        <v>154024</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2597414709978105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2156337297981812</v>
+        <v>0.2221047019101278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3017062904369233</v>
+        <v>0.3046797010477614</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -3179,19 +3179,19 @@
         <v>199201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>173911</v>
+        <v>175683</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221169</v>
+        <v>225024</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3803256062839925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3320407020100755</v>
+        <v>0.3354239798230904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4222679504063054</v>
+        <v>0.4296279234114672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>308</v>
@@ -3200,19 +3200,19 @@
         <v>330508</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>299529</v>
+        <v>301288</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>363026</v>
+        <v>363081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3211018372601789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2910047366718369</v>
+        <v>0.2927139542775133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3526945293350479</v>
+        <v>0.3527483472548432</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>374221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353006</v>
+        <v>351503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>396518</v>
+        <v>393247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7402585290021896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6982937095630767</v>
+        <v>0.6953202989522386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7843662702018181</v>
+        <v>0.7778952980898722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -3250,19 +3250,19 @@
         <v>324564</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302596</v>
+        <v>298741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>349854</v>
+        <v>348082</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6196743937160075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5777320495936945</v>
+        <v>0.570372076588533</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.667959297989924</v>
+        <v>0.6645760201769096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>644</v>
@@ -3271,19 +3271,19 @@
         <v>698784</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>666266</v>
+        <v>666211</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729763</v>
+        <v>728004</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6788981627398211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6473054706649518</v>
+        <v>0.6472516527451566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.708995263328163</v>
+        <v>0.7072860457224864</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>76522</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62046</v>
+        <v>61601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94076</v>
+        <v>92601</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2361450853827421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1914733006136023</v>
+        <v>0.190099540042634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2903175400428036</v>
+        <v>0.2857636052979408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -3396,19 +3396,19 @@
         <v>96258</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79184</v>
+        <v>81176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114741</v>
+        <v>114493</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2822643267041944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2321970063366688</v>
+        <v>0.2380374789797035</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3364643859448318</v>
+        <v>0.3357358834470561</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -3417,19 +3417,19 @@
         <v>172780</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150797</v>
+        <v>150806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195049</v>
+        <v>197832</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2597932403634461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.226739546848576</v>
+        <v>0.2267541595508129</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2932769365057449</v>
+        <v>0.2974625875870674</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>247524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229970</v>
+        <v>231445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262000</v>
+        <v>262445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7638549146172579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7096824599571965</v>
+        <v>0.7142363947020591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8085266993863978</v>
+        <v>0.809900459957366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -3467,19 +3467,19 @@
         <v>244762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226279</v>
+        <v>226527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>261836</v>
+        <v>259844</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7177356732958056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.663535614055168</v>
+        <v>0.6642641165529436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.767802993663331</v>
+        <v>0.7619625210202964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>471</v>
@@ -3488,19 +3488,19 @@
         <v>492286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>470017</v>
+        <v>467234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>514269</v>
+        <v>514260</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7402067596365538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7067230634942552</v>
+        <v>0.7025374124129328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.773260453151424</v>
+        <v>0.7732458404491871</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>80562</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65085</v>
+        <v>65489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98877</v>
+        <v>101263</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2154160401343826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1740334735771431</v>
+        <v>0.1751119302775486</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2643901410834039</v>
+        <v>0.270770468501388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -3613,19 +3613,19 @@
         <v>104667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88067</v>
+        <v>84683</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123269</v>
+        <v>122047</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2697648608658387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2269808083215606</v>
+        <v>0.2182609233188369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3177105003116128</v>
+        <v>0.3145594659982207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -3634,19 +3634,19 @@
         <v>185228</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160353</v>
+        <v>162183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209054</v>
+        <v>210729</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2430900900688105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2104441493065082</v>
+        <v>0.212846361592221</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2743588497040444</v>
+        <v>0.2765567158760465</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>293420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>275105</v>
+        <v>272719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>308897</v>
+        <v>308493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7845839598656174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7356098589165961</v>
+        <v>0.7292295314986125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8259665264228568</v>
+        <v>0.8248880697224515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>270</v>
@@ -3684,19 +3684,19 @@
         <v>283325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264723</v>
+        <v>265945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>299925</v>
+        <v>303309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7302351391341613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.682289499688387</v>
+        <v>0.6854405340017793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7730191916784394</v>
+        <v>0.7817390766811632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>541</v>
@@ -3705,19 +3705,19 @@
         <v>576746</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>552920</v>
+        <v>551245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>601621</v>
+        <v>599791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7569099099311895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7256411502959557</v>
+        <v>0.7234432841239532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7895558506934918</v>
+        <v>0.7871536384077789</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>36867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26853</v>
+        <v>26722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49087</v>
+        <v>48724</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1733948595390123</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1262967624871807</v>
+        <v>0.1256800500794293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2308679068635622</v>
+        <v>0.2291601742651646</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -3830,19 +3830,19 @@
         <v>78914</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64198</v>
+        <v>64860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93503</v>
+        <v>94319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3593690836719092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2923525512516247</v>
+        <v>0.2953684409462696</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4258030198007908</v>
+        <v>0.4295194111737801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -3851,19 +3851,19 @@
         <v>115781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97725</v>
+        <v>97884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136552</v>
+        <v>134660</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2678821611269122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2261058673590916</v>
+        <v>0.2264747209112006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3159393056485665</v>
+        <v>0.3115617078489137</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>175751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>163531</v>
+        <v>163894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185765</v>
+        <v>185896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8266051404609877</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7691320931364378</v>
+        <v>0.7708398257348357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8737032375128195</v>
+        <v>0.8743199499205708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -3901,19 +3901,19 @@
         <v>140677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126088</v>
+        <v>125272</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155393</v>
+        <v>154731</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6406309163280908</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5741969801992094</v>
+        <v>0.5704805888262208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7076474487483759</v>
+        <v>0.7046315590537313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>296</v>
@@ -3922,19 +3922,19 @@
         <v>316428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>295657</v>
+        <v>297549</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>334484</v>
+        <v>334325</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7321178388730878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6840606943514335</v>
+        <v>0.6884382921510863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7738941326409083</v>
+        <v>0.7735252790887993</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>64279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50403</v>
+        <v>51308</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78337</v>
+        <v>78575</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.234612721892081</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1839635746503953</v>
+        <v>0.1872679214419594</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2859198650106274</v>
+        <v>0.2867894429113798</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -4047,19 +4047,19 @@
         <v>96148</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80524</v>
+        <v>82117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112386</v>
+        <v>113056</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.343348298825547</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.287553086469391</v>
+        <v>0.2932425171170661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4013336404085717</v>
+        <v>0.4037279252643511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -4068,19 +4068,19 @@
         <v>160428</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139553</v>
+        <v>139630</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>182100</v>
+        <v>183390</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2895742246126193</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2518950504424908</v>
+        <v>0.2520342967588364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3286924276515326</v>
+        <v>0.3310211241392907</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>209702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>195644</v>
+        <v>195406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223578</v>
+        <v>222673</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.765387278107919</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7140801349893725</v>
+        <v>0.71321055708862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8160364253496047</v>
+        <v>0.8127320785580405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>178</v>
@@ -4118,19 +4118,19 @@
         <v>183883</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167645</v>
+        <v>166975</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>199507</v>
+        <v>197914</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6566517011744529</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5986663595914283</v>
+        <v>0.5962720747356487</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7124469135306088</v>
+        <v>0.7067574828829337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>378</v>
@@ -4139,19 +4139,19 @@
         <v>393584</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>371912</v>
+        <v>370622</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>414459</v>
+        <v>414382</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7104257753873807</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6713075723484674</v>
+        <v>0.6689788758607093</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7481049495575092</v>
+        <v>0.7479657032411636</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>146687</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125863</v>
+        <v>125668</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168265</v>
+        <v>170285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2213177928429427</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1898998543589812</v>
+        <v>0.1896048031961962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2538739326481065</v>
+        <v>0.2569218073073062</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -4264,19 +4264,19 @@
         <v>186931</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163994</v>
+        <v>162926</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213177</v>
+        <v>211544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2694107608139167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2363533596222838</v>
+        <v>0.2348138799255082</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3072358695106701</v>
+        <v>0.3048836725209722</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>311</v>
@@ -4285,19 +4285,19 @@
         <v>333618</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>300714</v>
+        <v>301192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>366616</v>
+        <v>364522</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2459149032444728</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2216603472441832</v>
+        <v>0.222012939276724</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2702377730521803</v>
+        <v>0.2686945578315229</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>516101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>494523</v>
+        <v>492503</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>536925</v>
+        <v>537120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7786822071570573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7461260673518935</v>
+        <v>0.7430781926926938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8101001456410188</v>
+        <v>0.8103951968038038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>462</v>
@@ -4335,19 +4335,19 @@
         <v>506922</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>480676</v>
+        <v>482309</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>529859</v>
+        <v>530927</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7305892391860833</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6927641304893299</v>
+        <v>0.6951163274790277</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7636466403777161</v>
+        <v>0.7651861200744918</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>943</v>
@@ -4356,19 +4356,19 @@
         <v>1023023</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>990025</v>
+        <v>992119</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1055927</v>
+        <v>1055449</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7540850967555272</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7297622269478197</v>
+        <v>0.731305442168477</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7783396527558167</v>
+        <v>0.7779870607232759</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>69324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53103</v>
+        <v>53285</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88182</v>
+        <v>89692</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08920362624680607</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06833137344179518</v>
+        <v>0.06856469391822126</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1134689911874622</v>
+        <v>0.1154125518017441</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -4481,19 +4481,19 @@
         <v>106589</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87713</v>
+        <v>87881</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126688</v>
+        <v>128945</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1295310744612024</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1065918902674729</v>
+        <v>0.1067958982750547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1539564090048491</v>
+        <v>0.1566989732332764</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>154</v>
@@ -4502,19 +4502,19 @@
         <v>175913</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>150000</v>
+        <v>148393</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>205103</v>
+        <v>202610</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1099437705354637</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09374866627547225</v>
+        <v>0.0927441573366987</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1281869577485158</v>
+        <v>0.1266292503399885</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>707820</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>688962</v>
+        <v>687452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>724041</v>
+        <v>723859</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9107963737531939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8865310088125379</v>
+        <v>0.884587448198256</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9316686265582048</v>
+        <v>0.9314353060817787</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>662</v>
@@ -4552,19 +4552,19 @@
         <v>716295</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>696196</v>
+        <v>693939</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>735171</v>
+        <v>735003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8704689255387976</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8460435909951505</v>
+        <v>0.8433010267667227</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8934081097325268</v>
+        <v>0.8932041017249454</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1317</v>
@@ -4573,19 +4573,19 @@
         <v>1424115</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1394925</v>
+        <v>1397418</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1450028</v>
+        <v>1451635</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8900562294645363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8718130422514838</v>
+        <v>0.8733707496600115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9062513337245275</v>
+        <v>0.9072558426633014</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>706558</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>659024</v>
+        <v>658971</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>761583</v>
+        <v>759415</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2063485053197523</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1924663082287617</v>
+        <v>0.1924509127457591</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2224187144832533</v>
+        <v>0.2217852855863815</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>908</v>
@@ -4698,19 +4698,19 @@
         <v>979472</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>927659</v>
+        <v>927459</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1034381</v>
+        <v>1037634</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2755039324934101</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.26092990954489</v>
+        <v>0.2608736943545716</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2909485939726816</v>
+        <v>0.2918636050331002</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1571</v>
@@ -4719,19 +4719,19 @@
         <v>1686030</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1619238</v>
+        <v>1611810</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1759638</v>
+        <v>1761978</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2415757574292543</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2320057498353366</v>
+        <v>0.230941461576987</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2521224223730026</v>
+        <v>0.2524577271466536</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2717540</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2662515</v>
+        <v>2664683</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2765074</v>
+        <v>2765127</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7936514946802476</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7775812855167464</v>
+        <v>0.7782147144136183</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8075336917712382</v>
+        <v>0.8075490872542405</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2387</v>
@@ -4769,19 +4769,19 @@
         <v>2575731</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2520822</v>
+        <v>2517569</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2627544</v>
+        <v>2627744</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7244960675065899</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7090514060273183</v>
+        <v>0.7081363949668995</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7390700904551096</v>
+        <v>0.7391263056454281</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4930</v>
@@ -4790,19 +4790,19 @@
         <v>5293271</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5219663</v>
+        <v>5217323</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5360063</v>
+        <v>5367491</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7584242425707457</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7478775776269975</v>
+        <v>0.7475422728533464</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7679942501646635</v>
+        <v>0.769058538423013</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>83698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68413</v>
+        <v>69065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100254</v>
+        <v>101901</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2849198782499053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2328860294127847</v>
+        <v>0.2351055734272126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3412773311084475</v>
+        <v>0.3468855093648283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -5159,19 +5159,19 @@
         <v>104120</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89419</v>
+        <v>89278</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121825</v>
+        <v>121094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3629324782180504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3116901048847173</v>
+        <v>0.3111997878841664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4246483064718619</v>
+        <v>0.4221003191541304</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -5180,19 +5180,19 @@
         <v>187818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>164990</v>
+        <v>166134</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210029</v>
+        <v>211640</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3234641791414333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.284149647568799</v>
+        <v>0.2861192090443123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3617169241555364</v>
+        <v>0.3644903784159971</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>210063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193507</v>
+        <v>191860</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>225348</v>
+        <v>224696</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7150801217500947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6587226688915523</v>
+        <v>0.6531144906351717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7671139705872152</v>
+        <v>0.7648944265727874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -5230,19 +5230,19 @@
         <v>182764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165059</v>
+        <v>165790</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197465</v>
+        <v>197606</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6370675217819497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5753516935281382</v>
+        <v>0.5778996808458692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6883098951152827</v>
+        <v>0.6888002121158336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>363</v>
@@ -5251,19 +5251,19 @@
         <v>392827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>370616</v>
+        <v>369005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>415655</v>
+        <v>414511</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6765358208585667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6382830758444636</v>
+        <v>0.6355096215840034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.715850352431201</v>
+        <v>0.7138807909556877</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>83667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69222</v>
+        <v>68711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101308</v>
+        <v>102404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1664769014725002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1377339386724345</v>
+        <v>0.1367170789959312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2015780689960609</v>
+        <v>0.2037595076047119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -5376,19 +5376,19 @@
         <v>110000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91380</v>
+        <v>93141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129850</v>
+        <v>129295</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2102907729562577</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1746941016929162</v>
+        <v>0.1780610335996647</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2482392202056204</v>
+        <v>0.2471775010387841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -5397,19 +5397,19 @@
         <v>193667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167845</v>
+        <v>167675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>219513</v>
+        <v>218652</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1888218787725614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1636460145693563</v>
+        <v>0.1634805188101999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2140214510415264</v>
+        <v>0.2131822172389305</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>418908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401267</v>
+        <v>400171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433353</v>
+        <v>433864</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8335230985274998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.798421931003939</v>
+        <v>0.7962404923952885</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.862266061327565</v>
+        <v>0.8632829210040691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>382</v>
@@ -5447,19 +5447,19 @@
         <v>413084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>393234</v>
+        <v>393789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431704</v>
+        <v>429943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7897092270437424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7517607797943794</v>
+        <v>0.7528224989612158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8253058983070835</v>
+        <v>0.8219389664003351</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>781</v>
@@ -5468,19 +5468,19 @@
         <v>831992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>806146</v>
+        <v>807007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857814</v>
+        <v>857984</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8111781212274386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7859785489584735</v>
+        <v>0.7868177827610695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8363539854306438</v>
+        <v>0.8365194811898001</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>37265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26849</v>
+        <v>26731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48835</v>
+        <v>49479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1190145728649871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08574942003964417</v>
+        <v>0.08537136000849348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1559666376556997</v>
+        <v>0.158022730705928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -5593,19 +5593,19 @@
         <v>47283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36484</v>
+        <v>36646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61493</v>
+        <v>60484</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1416477459860066</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1092964334091684</v>
+        <v>0.1097805990545627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1842168995465634</v>
+        <v>0.1811940074594035</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -5614,19 +5614,19 @@
         <v>84548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69423</v>
+        <v>68442</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103196</v>
+        <v>101413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1306931623016601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1073126535433218</v>
+        <v>0.1057965872769095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1595183430767499</v>
+        <v>0.1567619806777375</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>275849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264279</v>
+        <v>263635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286265</v>
+        <v>286383</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8809854271350129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8440333623443004</v>
+        <v>0.8419772692940722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9142505799603559</v>
+        <v>0.9146286399915066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>282</v>
@@ -5664,19 +5664,19 @@
         <v>286525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>272315</v>
+        <v>273324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>297324</v>
+        <v>297162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8583522540139934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8157831004534367</v>
+        <v>0.8188059925405966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8907035665908321</v>
+        <v>0.8902194009454373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>573</v>
@@ -5685,19 +5685,19 @@
         <v>562374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>543726</v>
+        <v>545509</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>577499</v>
+        <v>578480</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8693068376983399</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8404816569232501</v>
+        <v>0.8432380193222625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8926873464566781</v>
+        <v>0.8942034127230906</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>97356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80582</v>
+        <v>82120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114567</v>
+        <v>116807</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2652721807648171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2195651442515368</v>
+        <v>0.2237568933940659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3121653670945966</v>
+        <v>0.3182707760799179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -5810,19 +5810,19 @@
         <v>125414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105840</v>
+        <v>106249</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144625</v>
+        <v>147002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.323829351788838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2732888008453608</v>
+        <v>0.2743439544469513</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3734358608632349</v>
+        <v>0.3795726589476727</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>202</v>
@@ -5831,19 +5831,19 @@
         <v>222770</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194512</v>
+        <v>197242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>248083</v>
+        <v>250255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2953378569114674</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2578748797015553</v>
+        <v>0.2614936790581361</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3288960848293226</v>
+        <v>0.3317766419262042</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>269650</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252439</v>
+        <v>250199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286424</v>
+        <v>284886</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7347278192351829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6878346329054041</v>
+        <v>0.6817292239200824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7804348557484634</v>
+        <v>0.7762431066059341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -5881,19 +5881,19 @@
         <v>261869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>242658</v>
+        <v>240281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>281443</v>
+        <v>281034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.676170648211162</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6265641391367651</v>
+        <v>0.6204273410523274</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7267111991546392</v>
+        <v>0.7256560455530486</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>507</v>
@@ -5902,19 +5902,19 @@
         <v>531519</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>506206</v>
+        <v>504034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>559777</v>
+        <v>557047</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7046621430885327</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6711039151706774</v>
+        <v>0.6682233580737958</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7421251202984448</v>
+        <v>0.7385063209418641</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>26355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18279</v>
+        <v>18214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37541</v>
+        <v>37499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1261236319557225</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08747217327070916</v>
+        <v>0.08716397310101813</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1796538948714691</v>
+        <v>0.1794522453389833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -6027,19 +6027,19 @@
         <v>30534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20319</v>
+        <v>21926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40808</v>
+        <v>41570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1402442275416679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09332532019091874</v>
+        <v>0.1007089134369594</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1874339859144751</v>
+        <v>0.1909335991003897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -6048,19 +6048,19 @@
         <v>56889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44246</v>
+        <v>44424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71570</v>
+        <v>72477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.13332879230671</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.103697650910904</v>
+        <v>0.1041152193807848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1677362979844035</v>
+        <v>0.1698610581826333</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>182609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171423</v>
+        <v>171465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190685</v>
+        <v>190750</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8738763680442775</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.820346105128531</v>
+        <v>0.8205477546610168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9125278267292911</v>
+        <v>0.912836026898982</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -6098,19 +6098,19 @@
         <v>187185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176911</v>
+        <v>176149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197400</v>
+        <v>195793</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8597557724583321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.812566014085525</v>
+        <v>0.8090664008996103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9066746798090815</v>
+        <v>0.8992910865630406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>374</v>
@@ -6119,19 +6119,19 @@
         <v>369795</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>355114</v>
+        <v>354207</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>382438</v>
+        <v>382260</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8666712076932901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8322637020155964</v>
+        <v>0.8301389418173667</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8963023490890959</v>
+        <v>0.8958847806192152</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>57743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45442</v>
+        <v>46056</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71958</v>
+        <v>73199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2194510916433161</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1727033583955481</v>
+        <v>0.1750359718483319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2734781601135396</v>
+        <v>0.2781913638940867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -6244,19 +6244,19 @@
         <v>76374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61875</v>
+        <v>62021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92137</v>
+        <v>91170</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.279641952806485</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2265512881528815</v>
+        <v>0.2270881657822495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3373544871797201</v>
+        <v>0.333814252182672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -6265,19 +6265,19 @@
         <v>134117</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114663</v>
+        <v>114941</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156593</v>
+        <v>154702</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2501073060192996</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2138282725967283</v>
+        <v>0.2143469668386165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2920220464723956</v>
+        <v>0.2884946659616163</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>205380</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191165</v>
+        <v>189924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217681</v>
+        <v>217067</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7805489083566839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7265218398864605</v>
+        <v>0.7218086361059134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8272966416044519</v>
+        <v>0.8249640281516681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -6315,19 +6315,19 @@
         <v>196741</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180978</v>
+        <v>181945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211240</v>
+        <v>211094</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.720358047193515</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6626455128202802</v>
+        <v>0.666185747817328</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7734487118471187</v>
+        <v>0.7729118342177506</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>393</v>
@@ -6336,19 +6336,19 @@
         <v>402121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379645</v>
+        <v>381536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>421575</v>
+        <v>421297</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7498926939807004</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7079779535276047</v>
+        <v>0.7115053340383838</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7861717274032718</v>
+        <v>0.7856530331613838</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>75317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58532</v>
+        <v>59668</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93922</v>
+        <v>95481</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1147154092875921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08915019453092717</v>
+        <v>0.0908804089334712</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1430528571911434</v>
+        <v>0.1454267735046589</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -6461,19 +6461,19 @@
         <v>124978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>104206</v>
+        <v>105106</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146987</v>
+        <v>147964</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1811209157609818</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1510184457370127</v>
+        <v>0.1523230857196922</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2130179009900425</v>
+        <v>0.2144340310759951</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -6482,19 +6482,19 @@
         <v>200295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174091</v>
+        <v>172692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>227970</v>
+        <v>226749</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1487433099905866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1292839240821835</v>
+        <v>0.1282450258468836</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1692952506663201</v>
+        <v>0.1683888681300475</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>581241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>562636</v>
+        <v>561077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>598026</v>
+        <v>596890</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8852845907124078</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8569471428088566</v>
+        <v>0.8545732264953411</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9108498054690729</v>
+        <v>0.9091195910665287</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>532</v>
@@ -6532,19 +6532,19 @@
         <v>565045</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>543036</v>
+        <v>542059</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>585817</v>
+        <v>584917</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8188790842390182</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7869820990099575</v>
+        <v>0.7855659689240049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8489815542629873</v>
+        <v>0.8476769142803078</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1047</v>
@@ -6553,19 +6553,19 @@
         <v>1146286</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1118611</v>
+        <v>1119832</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1172490</v>
+        <v>1173889</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8512566900094134</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8307047493336801</v>
+        <v>0.8316111318699523</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8707160759178166</v>
+        <v>0.8717549741531161</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>103187</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84464</v>
+        <v>83931</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122375</v>
+        <v>121769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1325322447640295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1084842554661164</v>
+        <v>0.1077996842762166</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1571764090322675</v>
+        <v>0.1563986382278233</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -6678,19 +6678,19 @@
         <v>142778</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122033</v>
+        <v>121130</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167798</v>
+        <v>166505</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1728194978855265</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1477095198325152</v>
+        <v>0.1466166946037931</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2031047943336019</v>
+        <v>0.2015387548672927</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>227</v>
@@ -6699,19 +6699,19 @@
         <v>245965</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>219111</v>
+        <v>216332</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278528</v>
+        <v>277154</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1532731696153129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1365389946579364</v>
+        <v>0.1348072766532119</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1735650285994676</v>
+        <v>0.1727086732578479</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>675396</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>656208</v>
+        <v>656814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>694119</v>
+        <v>694652</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8674677552359704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8428235909677324</v>
+        <v>0.8436013617721768</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8915157445338836</v>
+        <v>0.8922003157237834</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>627</v>
@@ -6749,19 +6749,19 @@
         <v>683389</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>658369</v>
+        <v>659662</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>704134</v>
+        <v>705037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8271805021144735</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7968952056663983</v>
+        <v>0.7984612451327072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.852290480167485</v>
+        <v>0.8533833053962065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1278</v>
@@ -6770,19 +6770,19 @@
         <v>1358785</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1326222</v>
+        <v>1327596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1385639</v>
+        <v>1388418</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8467268303846871</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8264349714005323</v>
+        <v>0.8272913267421521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8634610053420636</v>
+        <v>0.8651927233467881</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>564590</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>523043</v>
+        <v>520135</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>613874</v>
+        <v>605436</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1668564885274853</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1545779012480986</v>
+        <v>0.153718486892709</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1814217473284463</v>
+        <v>0.1789280006531407</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>708</v>
@@ -6895,19 +6895,19 @@
         <v>761480</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>707435</v>
+        <v>710646</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>809216</v>
+        <v>808683</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.215223769123474</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1999486877075719</v>
+        <v>0.2008562707075933</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2287158568889233</v>
+        <v>0.2285652821353783</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1238</v>
@@ -6916,19 +6916,19 @@
         <v>1326069</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1263701</v>
+        <v>1260580</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1397308</v>
+        <v>1392659</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1915795747036316</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1825691246258811</v>
+        <v>0.1821182271502615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2018716299385435</v>
+        <v>0.2011998536914071</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2819094</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2769810</v>
+        <v>2778248</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2860641</v>
+        <v>2863549</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8331435114725148</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.818578252671554</v>
+        <v>0.8210719993468595</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8454220987519014</v>
+        <v>0.8462815131072912</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2625</v>
@@ -6966,19 +6966,19 @@
         <v>2776603</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2728867</v>
+        <v>2729400</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2830648</v>
+        <v>2827437</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.784776230876526</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.771284143111077</v>
+        <v>0.7714347178646216</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8000513122924281</v>
+        <v>0.7991437292924066</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5316</v>
@@ -6987,19 +6987,19 @@
         <v>5595698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5524459</v>
+        <v>5529108</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5658066</v>
+        <v>5661187</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8084204252963684</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7981283700614563</v>
+        <v>0.7988001463085928</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8174308753741188</v>
+        <v>0.8178817728497383</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>106088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87556</v>
+        <v>89409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123680</v>
+        <v>124994</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3327274227536915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2746022297563008</v>
+        <v>0.2804160992275734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.387899192487066</v>
+        <v>0.3920213614267446</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -7356,19 +7356,19 @@
         <v>121762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108365</v>
+        <v>106446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137058</v>
+        <v>136870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3852475829709968</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3428624760228878</v>
+        <v>0.3367889074044239</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4336455281833462</v>
+        <v>0.43304815815052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -7377,19 +7377,19 @@
         <v>227850</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205960</v>
+        <v>205729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252374</v>
+        <v>248469</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3588723286021697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.32439455566947</v>
+        <v>0.3240306366266378</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3974982430004344</v>
+        <v>0.3913479235711378</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>212757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195165</v>
+        <v>193851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>231289</v>
+        <v>229436</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6672725772463085</v>
+        <v>0.6672725772463084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6121008075129341</v>
+        <v>0.6079786385732555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7253977702436991</v>
+        <v>0.7195839007724266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -7427,19 +7427,19 @@
         <v>194299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>179003</v>
+        <v>179191</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>207696</v>
+        <v>209615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6147524170290032</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5663544718166539</v>
+        <v>0.56695184184948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6571375239771124</v>
+        <v>0.663211092595576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>559</v>
@@ -7448,19 +7448,19 @@
         <v>407056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382532</v>
+        <v>386437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>428946</v>
+        <v>429177</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6411276713978303</v>
+        <v>0.6411276713978302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6025017569995659</v>
+        <v>0.6086520764288619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6756054443305306</v>
+        <v>0.6759693633733618</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>80932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61123</v>
+        <v>61414</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100185</v>
+        <v>103151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1525158561856387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1151858446301866</v>
+        <v>0.1157350963634505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.188797608375927</v>
+        <v>0.1943881295054882</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>148</v>
@@ -7573,19 +7573,19 @@
         <v>108245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92155</v>
+        <v>91993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125711</v>
+        <v>126038</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1983874401667134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1688985416782126</v>
+        <v>0.1686014094153288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2303999409472158</v>
+        <v>0.2309996250108207</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -7594,19 +7594,19 @@
         <v>189177</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165172</v>
+        <v>165739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217705</v>
+        <v>220901</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1757707667695119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.153467038967655</v>
+        <v>0.1539937721758506</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2022773527768923</v>
+        <v>0.2052466096769275</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>449715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430462</v>
+        <v>427496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469524</v>
+        <v>469233</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8474841438143613</v>
+        <v>0.8474841438143612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8112023916240744</v>
+        <v>0.8056118704945118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8848141553698139</v>
+        <v>0.8842649036365494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>568</v>
@@ -7644,19 +7644,19 @@
         <v>437377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>419911</v>
+        <v>419584</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>453467</v>
+        <v>453629</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8016125598332866</v>
+        <v>0.8016125598332867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7696000590527841</v>
+        <v>0.7690003749891793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8311014583217876</v>
+        <v>0.831398590584671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>889</v>
@@ -7665,19 +7665,19 @@
         <v>887092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858564</v>
+        <v>855368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>911097</v>
+        <v>910530</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8242292332304879</v>
+        <v>0.824229233230488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7977226472231075</v>
+        <v>0.7947533903230715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8465329610323451</v>
+        <v>0.8460062278241491</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>74776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60293</v>
+        <v>61871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90168</v>
+        <v>90294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2366378548942348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1908038664743198</v>
+        <v>0.1958001100895274</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2853490813560101</v>
+        <v>0.2857464797184355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>166</v>
@@ -7790,19 +7790,19 @@
         <v>114616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98791</v>
+        <v>100300</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130069</v>
+        <v>130769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3221015259216176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2776288881034867</v>
+        <v>0.2818713573501498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3655300629224846</v>
+        <v>0.3674970155901661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>254</v>
@@ -7811,19 +7811,19 @@
         <v>189392</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169337</v>
+        <v>168391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210929</v>
+        <v>212010</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2819039360938447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2520536590694754</v>
+        <v>0.2506450287550026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3139623953438254</v>
+        <v>0.3155710095557828</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>241217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>225825</v>
+        <v>225699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255700</v>
+        <v>254122</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7633621451057651</v>
+        <v>0.7633621451057652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7146509186439897</v>
+        <v>0.7142535202815646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8091961335256799</v>
+        <v>0.8041998899104725</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>369</v>
@@ -7861,19 +7861,19 @@
         <v>241221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225768</v>
+        <v>225068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257046</v>
+        <v>255537</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6778984740783824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6344699370775152</v>
+        <v>0.6325029844098342</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7223711118965133</v>
+        <v>0.7181286426498508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -7882,19 +7882,19 @@
         <v>482438</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>460901</v>
+        <v>459820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>502493</v>
+        <v>503439</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7180960639061552</v>
+        <v>0.7180960639061553</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6860376046561749</v>
+        <v>0.6844289904442173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7479463409305247</v>
+        <v>0.7493549712449974</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>90105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67286</v>
+        <v>69513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113165</v>
+        <v>111774</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2427562260034383</v>
+        <v>0.2427562260034384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1812778317294311</v>
+        <v>0.1872770233077578</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3048817993641978</v>
+        <v>0.3011357673546695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -8007,19 +8007,19 @@
         <v>106735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87942</v>
+        <v>89914</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124975</v>
+        <v>127043</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.252949343461849</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2084128051649737</v>
+        <v>0.2130849861121743</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.296176320722993</v>
+        <v>0.301077716787131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>201</v>
@@ -8028,19 +8028,19 @@
         <v>196840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170361</v>
+        <v>169896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227722</v>
+        <v>225572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2481791312663865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2147945506210857</v>
+        <v>0.2142073109171432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2871156784242084</v>
+        <v>0.2844049245745291</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>281070</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>258010</v>
+        <v>259401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303889</v>
+        <v>301662</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7572437739965615</v>
+        <v>0.7572437739965616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6951182006358021</v>
+        <v>0.6988642326453304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8187221682705691</v>
+        <v>0.8127229766922421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>460</v>
@@ -8078,19 +8078,19 @@
         <v>315226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296986</v>
+        <v>294918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334019</v>
+        <v>332047</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7470506565381511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7038236792770073</v>
+        <v>0.698922283212869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7915871948350266</v>
+        <v>0.7869150138878258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>689</v>
@@ -8099,19 +8099,19 @@
         <v>596296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>565414</v>
+        <v>567564</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>622775</v>
+        <v>623240</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7518208687336134</v>
+        <v>0.7518208687336135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7128843215757914</v>
+        <v>0.7155950754254707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7852054493789142</v>
+        <v>0.7857926890828568</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>18799</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12284</v>
+        <v>12592</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29221</v>
+        <v>28328</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09140623566349804</v>
+        <v>0.09140623566349801</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05972806670268782</v>
+        <v>0.0612247682593999</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1420828706511404</v>
+        <v>0.13773629836949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -8224,19 +8224,19 @@
         <v>11004</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6988</v>
+        <v>7241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15913</v>
+        <v>16286</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04842994109721428</v>
+        <v>0.04842994109721427</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03075564588465674</v>
+        <v>0.03186679412865743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07003571700876168</v>
+        <v>0.07167482997211187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -8245,19 +8245,19 @@
         <v>29803</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21521</v>
+        <v>22155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39339</v>
+        <v>40101</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06884834690343467</v>
+        <v>0.06884834690343465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04971512236002051</v>
+        <v>0.0511806597827133</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09087868339859462</v>
+        <v>0.09263768585191305</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>186866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176444</v>
+        <v>177337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193381</v>
+        <v>193073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9085937643365019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8579171293488597</v>
+        <v>0.8622637016305099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9402719332973122</v>
+        <v>0.9387752317406002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>468</v>
@@ -8295,19 +8295,19 @@
         <v>216211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211302</v>
+        <v>210929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220227</v>
+        <v>219974</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.951570058902786</v>
+        <v>0.9515700589027857</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.929964282991238</v>
+        <v>0.9283251700278883</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9692443541153428</v>
+        <v>0.9681332058713427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>724</v>
@@ -8316,19 +8316,19 @@
         <v>403076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393540</v>
+        <v>392778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411358</v>
+        <v>410724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9311516530965654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9091213166014054</v>
+        <v>0.9073623141480872</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9502848776399798</v>
+        <v>0.9488193402172868</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>68278</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56148</v>
+        <v>56385</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80577</v>
+        <v>81780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2522225026374774</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2074142892095496</v>
+        <v>0.208289260480815</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2976541579534511</v>
+        <v>0.3020981952674867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>142</v>
@@ -8441,19 +8441,19 @@
         <v>77225</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66658</v>
+        <v>66078</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89395</v>
+        <v>88531</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2927978983120903</v>
+        <v>0.2927978983120901</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2527321309324249</v>
+        <v>0.250534333818443</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3389389153269604</v>
+        <v>0.3356629812305677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>243</v>
@@ -8462,19 +8462,19 @@
         <v>145504</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127680</v>
+        <v>128319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162345</v>
+        <v>162363</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.272246128529939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2388972483892295</v>
+        <v>0.2400920805207913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3037574389447429</v>
+        <v>0.3037900498521259</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>202429</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190130</v>
+        <v>188927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214559</v>
+        <v>214322</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7477774973625226</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7023458420465488</v>
+        <v>0.6979018047325132</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.79258571079045</v>
+        <v>0.7917107395191851</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -8512,19 +8512,19 @@
         <v>186525</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174355</v>
+        <v>175219</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197092</v>
+        <v>197672</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7072021016879099</v>
+        <v>0.7072021016879096</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6610610846730396</v>
+        <v>0.6643370187694323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.747267869067575</v>
+        <v>0.749465666181557</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>588</v>
@@ -8533,19 +8533,19 @@
         <v>388953</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>372112</v>
+        <v>372094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>406777</v>
+        <v>406138</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7277538714700609</v>
+        <v>0.727753871470061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6962425610552571</v>
+        <v>0.6962099501478739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7611027516107705</v>
+        <v>0.7599079194792088</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>192031</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>165938</v>
+        <v>165621</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>222775</v>
+        <v>222690</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2668253066110386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2305691481009731</v>
+        <v>0.2301291943343279</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3095448395524577</v>
+        <v>0.3094258489254162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>328</v>
@@ -8658,7 +8658,7 @@
         <v>266194</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>241531</v>
+        <v>237732</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>290901</v>
@@ -8667,10 +8667,10 @@
         <v>0.3467397684839885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3146144802720096</v>
+        <v>0.3096662008986181</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3789238339245373</v>
+        <v>0.378923812992784</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>485</v>
@@ -8679,19 +8679,19 @@
         <v>458224</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>419560</v>
+        <v>421193</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>497259</v>
+        <v>496529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3080724684724686</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2820780165026894</v>
+        <v>0.2831757384540404</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3343160766616412</v>
+        <v>0.3338253646655182</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>527656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>496912</v>
+        <v>496997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>553749</v>
+        <v>554066</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7331746933889615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6904551604475423</v>
+        <v>0.6905741510745838</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7694308518990269</v>
+        <v>0.769870805665672</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>628</v>
@@ -8732,16 +8732,16 @@
         <v>476803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>526173</v>
+        <v>529972</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6532602315160114</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6210761660754626</v>
+        <v>0.6210761870072162</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6853855197279904</v>
+        <v>0.6903337991013824</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1070</v>
@@ -8750,19 +8750,19 @@
         <v>1029167</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>990132</v>
+        <v>990862</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1067831</v>
+        <v>1066198</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6919275315275315</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6656839233383588</v>
+        <v>0.6661746353344818</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7179219834973106</v>
+        <v>0.7168242615459595</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>102172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>83109</v>
+        <v>85442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>123367</v>
+        <v>124226</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1280238821378225</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1041375132474195</v>
+        <v>0.1070607005216521</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.154581826057041</v>
+        <v>0.1556576864067742</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>162</v>
@@ -8875,19 +8875,19 @@
         <v>128949</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110685</v>
+        <v>111074</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148759</v>
+        <v>149698</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1553578317176217</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1333534355752832</v>
+        <v>0.1338219023806724</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1792244650003677</v>
+        <v>0.1803550911915502</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>259</v>
@@ -8896,19 +8896,19 @@
         <v>231122</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>205212</v>
+        <v>207735</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>261267</v>
+        <v>262861</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1419590125128176</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1260448039144346</v>
+        <v>0.1275942739682688</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1604744790596705</v>
+        <v>0.1614536878182962</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>695900</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>674705</v>
+        <v>673846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>714963</v>
+        <v>712630</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8719761178621775</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8454181739429589</v>
+        <v>0.8443423135932255</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8958624867525805</v>
+        <v>0.8929392994783478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>898</v>
@@ -8946,19 +8946,19 @@
         <v>701067</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>681257</v>
+        <v>680318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>719331</v>
+        <v>718942</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8446421682823781</v>
+        <v>0.8446421682823783</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8207755349996323</v>
+        <v>0.8196449088084498</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8666465644247169</v>
+        <v>0.8661780976193276</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1563</v>
@@ -8967,19 +8967,19 @@
         <v>1396966</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1366821</v>
+        <v>1365227</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1422876</v>
+        <v>1420353</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8580409874871825</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8395255209403293</v>
+        <v>0.8385463121817037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8739551960855653</v>
+        <v>0.8724057260317314</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>733182</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>680790</v>
+        <v>676955</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>785097</v>
+        <v>784872</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2076537677813644</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1928149592804362</v>
+        <v>0.191728900778507</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2223571642903723</v>
+        <v>0.2222933387858264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1313</v>
@@ -9092,19 +9092,19 @@
         <v>934729</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>886223</v>
+        <v>890530</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>981969</v>
+        <v>986502</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2507209178145915</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.237710050008088</v>
+        <v>0.238865324630576</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2633919701758674</v>
+        <v>0.2646079491746523</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2008</v>
@@ -9113,19 +9113,19 @@
         <v>1667911</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1599061</v>
+        <v>1606087</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1740913</v>
+        <v>1741041</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.229772851941286</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2202879314546853</v>
+        <v>0.2212558337857704</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2398296367169328</v>
+        <v>0.2398472623540909</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2797610</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2745695</v>
+        <v>2745920</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2850002</v>
+        <v>2853837</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7923462322186355</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7776428357096279</v>
+        <v>0.7777066612141736</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8071850407195638</v>
+        <v>0.808271099221493</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4043</v>
@@ -9163,19 +9163,19 @@
         <v>2793437</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2746197</v>
+        <v>2741664</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2841943</v>
+        <v>2837636</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7492790821854085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7366080298241331</v>
+        <v>0.7353920508253479</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.762289949991912</v>
+        <v>0.7611346753694243</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6723</v>
@@ -9184,19 +9184,19 @@
         <v>5591047</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5518045</v>
+        <v>5517917</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5659897</v>
+        <v>5652871</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.770227148058714</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7601703632830673</v>
+        <v>0.7601527376459092</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7797120685453148</v>
+        <v>0.7787441662142296</v>
       </c>
     </row>
     <row r="30">
